--- a/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
+++ b/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>РАЗДЕЛ1</x:t>
   </x:si>
@@ -169,6 +169,9 @@
   </x:si>
   <x:si>
     <x:t>ед.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
   </x:si>
   <x:si>
     <x:t>Экономия ТЭР</x:t>
@@ -501,7 +504,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="31">
+  <x:cellStyleXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -595,8 +598,17 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="31">
+  <x:cellXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -718,6 +730,18 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1721,7 +1745,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K13"/>
+  <x:dimension ref="A1:K19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1816,7 +1840,9 @@
       </x:c>
       <x:c r="E5" s="30" t="s"/>
       <x:c r="F5" s="30" t="s"/>
-      <x:c r="G5" s="30" t="s"/>
+      <x:c r="G5" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="I5" s="29" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1829,17 +1855,19 @@
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="B6" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C6" s="30" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="30" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="30" t="s"/>
       <x:c r="F6" s="30" t="s"/>
-      <x:c r="G6" s="30" t="s"/>
+      <x:c r="G6" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="I6" s="30" t="n">
         <x:v>5</x:v>
       </x:c>
@@ -1848,48 +1876,52 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="B7" s="30" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="30" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="30" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="30" t="s"/>
       <x:c r="F7" s="30" t="s"/>
-      <x:c r="G7" s="30" t="s"/>
+      <x:c r="G7" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="B8" s="30" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="30" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="30" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="30" t="s"/>
       <x:c r="F8" s="30" t="s"/>
-      <x:c r="G8" s="30" t="s"/>
+      <x:c r="G8" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="B11" s="28" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s"/>
       <x:c r="D11" s="29" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="B12" s="29" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
@@ -1902,6 +1934,60 @@
       <x:c r="D13" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="B14" s="31" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="32" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D14" s="33" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="B15" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C15" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D15" s="17" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="B16" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C16" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D16" s="17" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="B17" s="15" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C17" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D17" s="17" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="B18" s="21" t="s"/>
+      <x:c r="C18" s="22" t="s"/>
+      <x:c r="D18" s="23" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -1909,7 +1995,7 @@
     <x:mergeCell ref="B11:D11"/>
     <x:mergeCell ref="I2:K2"/>
     <x:mergeCell ref="I3:I4"/>
-    <x:mergeCell ref="J3:K4"/>
+    <x:mergeCell ref="J3:K3"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
+++ b/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>РАЗДЕЛ1</x:t>
   </x:si>
@@ -94,6 +94,21 @@
   </x:si>
   <x:si>
     <x:t>1. По плану мероприятий отчетного года</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Замена неэкономичных котлов и печей с низким КПД на более эффективные</x:t>
+  </x:si>
+  <x:si>
+    <x:t>шт.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Внедрение автоматизации процессов горения топлива в котлоагрегатах и другом топливоиспользующем оборудовании</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итого</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
   </x:si>
   <x:si>
     <x:t>2. Дополнительные мероприятия</x:t>
@@ -504,7 +519,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="34">
+  <x:cellStyleXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -556,6 +571,9 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -598,17 +616,8 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="34">
+  <x:cellXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -677,6 +686,10 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -730,18 +743,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1040,11 +1041,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P14"/>
+  <x:dimension ref="A1:P17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.710625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:16">
       <x:c r="B2" s="1" t="s">
@@ -1238,47 +1243,85 @@
       <x:c r="P8" s="14" t="s"/>
     </x:row>
     <x:row r="9" spans="1:16">
-      <x:c r="B9" s="15" t="s"/>
+      <x:c r="B9" s="15" t="n">
+        <x:v>301</x:v>
+      </x:c>
       <x:c r="C9" s="16" t="s"/>
-      <x:c r="D9" s="16" t="s"/>
-      <x:c r="E9" s="16" t="s"/>
-      <x:c r="F9" s="16" t="s"/>
+      <x:c r="D9" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E9" s="17">
+        <x:v>41689</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="G9" s="16" t="s"/>
       <x:c r="H9" s="16" t="s"/>
-      <x:c r="I9" s="16" t="s"/>
-      <x:c r="J9" s="16" t="s"/>
-      <x:c r="K9" s="16" t="s"/>
-      <x:c r="L9" s="16" t="s"/>
-      <x:c r="M9" s="16" t="s"/>
-      <x:c r="N9" s="16" t="s"/>
-      <x:c r="O9" s="16" t="s"/>
-      <x:c r="P9" s="17" t="s"/>
+      <x:c r="I9" s="16" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J9" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K9" s="16" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L9" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M9" s="16" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N9" s="16" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O9" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P9" s="18" t="n">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:16">
-      <x:c r="B10" s="18" t="s">
+      <x:c r="B10" s="15" t="n">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C10" s="16" t="s"/>
+      <x:c r="D10" s="16" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C10" s="19" t="s"/>
-      <x:c r="D10" s="19" t="s"/>
-      <x:c r="E10" s="19" t="s"/>
-      <x:c r="F10" s="19" t="s"/>
-      <x:c r="G10" s="19" t="s"/>
-      <x:c r="H10" s="19" t="s"/>
-      <x:c r="I10" s="19" t="s"/>
-      <x:c r="J10" s="19" t="s"/>
-      <x:c r="K10" s="19" t="s"/>
-      <x:c r="L10" s="19" t="s"/>
-      <x:c r="M10" s="19" t="s"/>
-      <x:c r="N10" s="19" t="s"/>
-      <x:c r="O10" s="19" t="s"/>
-      <x:c r="P10" s="20" t="s"/>
+      <x:c r="E10" s="17">
+        <x:v>41682</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G10" s="16" t="s"/>
+      <x:c r="H10" s="16" t="s"/>
+      <x:c r="I10" s="16" t="s"/>
+      <x:c r="J10" s="16" t="s"/>
+      <x:c r="K10" s="16" t="s"/>
+      <x:c r="L10" s="16" t="s"/>
+      <x:c r="M10" s="16" t="s"/>
+      <x:c r="N10" s="16" t="s"/>
+      <x:c r="O10" s="16" t="s"/>
+      <x:c r="P10" s="18" t="s"/>
     </x:row>
     <x:row r="11" spans="1:16">
-      <x:c r="B11" s="15" t="s"/>
+      <x:c r="B11" s="15" t="n">
+        <x:v>306</x:v>
+      </x:c>
       <x:c r="C11" s="16" t="s"/>
-      <x:c r="D11" s="16" t="s"/>
-      <x:c r="E11" s="16" t="s"/>
-      <x:c r="F11" s="16" t="s"/>
+      <x:c r="D11" s="16" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E11" s="17">
+        <x:v>41674</x:v>
+      </x:c>
+      <x:c r="F11" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="G11" s="16" t="s"/>
       <x:c r="H11" s="16" t="s"/>
       <x:c r="I11" s="16" t="s"/>
@@ -1288,60 +1331,137 @@
       <x:c r="M11" s="16" t="s"/>
       <x:c r="N11" s="16" t="s"/>
       <x:c r="O11" s="16" t="s"/>
-      <x:c r="P11" s="17" t="s"/>
+      <x:c r="P11" s="18" t="s"/>
     </x:row>
     <x:row r="12" spans="1:16">
-      <x:c r="B12" s="18" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s"/>
-      <x:c r="D12" s="19" t="s"/>
-      <x:c r="E12" s="19" t="s"/>
-      <x:c r="F12" s="19" t="s"/>
-      <x:c r="G12" s="19" t="s"/>
-      <x:c r="H12" s="19" t="s"/>
-      <x:c r="I12" s="19" t="s"/>
-      <x:c r="J12" s="19" t="s"/>
-      <x:c r="K12" s="19" t="s"/>
-      <x:c r="L12" s="19" t="s"/>
-      <x:c r="M12" s="19" t="s"/>
-      <x:c r="N12" s="19" t="s"/>
-      <x:c r="O12" s="19" t="s"/>
-      <x:c r="P12" s="20" t="s"/>
+      <x:c r="B12" s="15" t="s"/>
+      <x:c r="C12" s="16" t="s"/>
+      <x:c r="D12" s="16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F12" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H12" s="16" t="s"/>
+      <x:c r="I12" s="16" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J12" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K12" s="16" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L12" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M12" s="16" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N12" s="16" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O12" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P12" s="18" t="n">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:16">
-      <x:c r="B13" s="15" t="s"/>
-      <x:c r="C13" s="16" t="s"/>
-      <x:c r="D13" s="16" t="s"/>
-      <x:c r="E13" s="16" t="s"/>
-      <x:c r="F13" s="16" t="s"/>
-      <x:c r="G13" s="16" t="s"/>
-      <x:c r="H13" s="16" t="s"/>
-      <x:c r="I13" s="16" t="s"/>
-      <x:c r="J13" s="16" t="s"/>
-      <x:c r="K13" s="16" t="s"/>
-      <x:c r="L13" s="16" t="s"/>
-      <x:c r="M13" s="16" t="s"/>
-      <x:c r="N13" s="16" t="s"/>
-      <x:c r="O13" s="16" t="s"/>
-      <x:c r="P13" s="17" t="s"/>
+      <x:c r="B13" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="20" t="s"/>
+      <x:c r="D13" s="20" t="s"/>
+      <x:c r="E13" s="20" t="s"/>
+      <x:c r="F13" s="20" t="s"/>
+      <x:c r="G13" s="20" t="s"/>
+      <x:c r="H13" s="20" t="s"/>
+      <x:c r="I13" s="20" t="s"/>
+      <x:c r="J13" s="20" t="s"/>
+      <x:c r="K13" s="20" t="s"/>
+      <x:c r="L13" s="20" t="s"/>
+      <x:c r="M13" s="20" t="s"/>
+      <x:c r="N13" s="20" t="s"/>
+      <x:c r="O13" s="20" t="s"/>
+      <x:c r="P13" s="21" t="s"/>
     </x:row>
     <x:row r="14" spans="1:16">
-      <x:c r="B14" s="21" t="s"/>
-      <x:c r="C14" s="22" t="s"/>
-      <x:c r="D14" s="22" t="s"/>
-      <x:c r="E14" s="22" t="s"/>
-      <x:c r="F14" s="22" t="s"/>
-      <x:c r="G14" s="22" t="s"/>
-      <x:c r="H14" s="22" t="s"/>
-      <x:c r="I14" s="22" t="s"/>
-      <x:c r="J14" s="22" t="s"/>
-      <x:c r="K14" s="22" t="s"/>
-      <x:c r="L14" s="22" t="s"/>
-      <x:c r="M14" s="22" t="s"/>
-      <x:c r="N14" s="22" t="s"/>
-      <x:c r="O14" s="22" t="s"/>
-      <x:c r="P14" s="23" t="s"/>
+      <x:c r="B14" s="15" t="s"/>
+      <x:c r="C14" s="16" t="s"/>
+      <x:c r="D14" s="16" t="s"/>
+      <x:c r="E14" s="16" t="s"/>
+      <x:c r="F14" s="16" t="s"/>
+      <x:c r="G14" s="16" t="s"/>
+      <x:c r="H14" s="16" t="s"/>
+      <x:c r="I14" s="16" t="s"/>
+      <x:c r="J14" s="16" t="s"/>
+      <x:c r="K14" s="16" t="s"/>
+      <x:c r="L14" s="16" t="s"/>
+      <x:c r="M14" s="16" t="s"/>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
+      <x:c r="P14" s="18" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:16">
+      <x:c r="B15" s="19" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C15" s="20" t="s"/>
+      <x:c r="D15" s="20" t="s"/>
+      <x:c r="E15" s="20" t="s"/>
+      <x:c r="F15" s="20" t="s"/>
+      <x:c r="G15" s="20" t="s"/>
+      <x:c r="H15" s="20" t="s"/>
+      <x:c r="I15" s="20" t="s"/>
+      <x:c r="J15" s="20" t="s"/>
+      <x:c r="K15" s="20" t="s"/>
+      <x:c r="L15" s="20" t="s"/>
+      <x:c r="M15" s="20" t="s"/>
+      <x:c r="N15" s="20" t="s"/>
+      <x:c r="O15" s="20" t="s"/>
+      <x:c r="P15" s="21" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:16">
+      <x:c r="B16" s="15" t="s"/>
+      <x:c r="C16" s="16" t="s"/>
+      <x:c r="D16" s="16" t="s"/>
+      <x:c r="E16" s="16" t="s"/>
+      <x:c r="F16" s="16" t="s"/>
+      <x:c r="G16" s="16" t="s"/>
+      <x:c r="H16" s="16" t="s"/>
+      <x:c r="I16" s="16" t="s"/>
+      <x:c r="J16" s="16" t="s"/>
+      <x:c r="K16" s="16" t="s"/>
+      <x:c r="L16" s="16" t="s"/>
+      <x:c r="M16" s="16" t="s"/>
+      <x:c r="N16" s="16" t="s"/>
+      <x:c r="O16" s="16" t="s"/>
+      <x:c r="P16" s="18" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:16">
+      <x:c r="B17" s="22" t="s"/>
+      <x:c r="C17" s="23" t="s"/>
+      <x:c r="D17" s="23" t="s"/>
+      <x:c r="E17" s="23" t="s"/>
+      <x:c r="F17" s="23" t="s"/>
+      <x:c r="G17" s="23" t="s"/>
+      <x:c r="H17" s="23" t="s"/>
+      <x:c r="I17" s="23" t="s"/>
+      <x:c r="J17" s="23" t="s"/>
+      <x:c r="K17" s="23" t="s"/>
+      <x:c r="L17" s="23" t="s"/>
+      <x:c r="M17" s="23" t="s"/>
+      <x:c r="N17" s="23" t="s"/>
+      <x:c r="O17" s="23" t="s"/>
+      <x:c r="P17" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -1358,8 +1478,8 @@
     <x:mergeCell ref="I5:I6"/>
     <x:mergeCell ref="J5:P5"/>
     <x:mergeCell ref="B8:P8"/>
-    <x:mergeCell ref="B10:P10"/>
-    <x:mergeCell ref="B12:P12"/>
+    <x:mergeCell ref="B13:P13"/>
+    <x:mergeCell ref="B15:P15"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1403,7 +1523,7 @@
     </x:row>
     <x:row r="3" spans="1:18" customFormat="1" ht="30" customHeight="1">
       <x:c r="B3" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s"/>
       <x:c r="D3" s="5" t="s"/>
@@ -1435,19 +1555,19 @@
       <x:c r="E4" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F4" s="24" t="s">
-        <x:v>29</x:v>
+      <x:c r="F4" s="25" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G4" s="8" t="s"/>
-      <x:c r="H4" s="24" t="s">
+      <x:c r="H4" s="25" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="I4" s="8" t="s"/>
       <x:c r="J4" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L4" s="5" t="s"/>
       <x:c r="M4" s="5" t="s"/>
@@ -1468,7 +1588,7 @@
       <x:c r="I5" s="6" t="s"/>
       <x:c r="J5" s="6" t="s"/>
       <x:c r="K5" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L5" s="5" t="s">
         <x:v>10</x:v>
@@ -1486,10 +1606,10 @@
       <x:c r="D6" s="6" t="s"/>
       <x:c r="E6" s="6" t="s"/>
       <x:c r="F6" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
         <x:v>11</x:v>
@@ -1506,7 +1626,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O6" s="8" t="s">
         <x:v>16</x:v>
@@ -1538,10 +1658,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H7" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="10" t="n">
         <x:v>1</x:v>
@@ -1612,28 +1732,28 @@
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
       <x:c r="Q9" s="16" t="s"/>
-      <x:c r="R9" s="17" t="s"/>
+      <x:c r="R9" s="18" t="s"/>
     </x:row>
     <x:row r="10" spans="1:18">
-      <x:c r="B10" s="18" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s"/>
-      <x:c r="D10" s="19" t="s"/>
-      <x:c r="E10" s="19" t="s"/>
-      <x:c r="F10" s="19" t="s"/>
-      <x:c r="G10" s="19" t="s"/>
-      <x:c r="H10" s="19" t="s"/>
-      <x:c r="I10" s="19" t="s"/>
-      <x:c r="J10" s="19" t="s"/>
-      <x:c r="K10" s="19" t="s"/>
-      <x:c r="L10" s="19" t="s"/>
-      <x:c r="M10" s="19" t="s"/>
-      <x:c r="N10" s="19" t="s"/>
-      <x:c r="O10" s="19" t="s"/>
-      <x:c r="P10" s="19" t="s"/>
-      <x:c r="Q10" s="19" t="s"/>
-      <x:c r="R10" s="20" t="s"/>
+      <x:c r="B10" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C10" s="20" t="s"/>
+      <x:c r="D10" s="20" t="s"/>
+      <x:c r="E10" s="20" t="s"/>
+      <x:c r="F10" s="20" t="s"/>
+      <x:c r="G10" s="20" t="s"/>
+      <x:c r="H10" s="20" t="s"/>
+      <x:c r="I10" s="20" t="s"/>
+      <x:c r="J10" s="20" t="s"/>
+      <x:c r="K10" s="20" t="s"/>
+      <x:c r="L10" s="20" t="s"/>
+      <x:c r="M10" s="20" t="s"/>
+      <x:c r="N10" s="20" t="s"/>
+      <x:c r="O10" s="20" t="s"/>
+      <x:c r="P10" s="20" t="s"/>
+      <x:c r="Q10" s="20" t="s"/>
+      <x:c r="R10" s="21" t="s"/>
     </x:row>
     <x:row r="11" spans="1:18">
       <x:c r="B11" s="15" t="s"/>
@@ -1652,28 +1772,28 @@
       <x:c r="O11" s="16" t="s"/>
       <x:c r="P11" s="16" t="s"/>
       <x:c r="Q11" s="16" t="s"/>
-      <x:c r="R11" s="17" t="s"/>
+      <x:c r="R11" s="18" t="s"/>
     </x:row>
     <x:row r="12" spans="1:18">
-      <x:c r="B12" s="18" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s"/>
-      <x:c r="D12" s="19" t="s"/>
-      <x:c r="E12" s="19" t="s"/>
-      <x:c r="F12" s="19" t="s"/>
-      <x:c r="G12" s="19" t="s"/>
-      <x:c r="H12" s="19" t="s"/>
-      <x:c r="I12" s="19" t="s"/>
-      <x:c r="J12" s="19" t="s"/>
-      <x:c r="K12" s="19" t="s"/>
-      <x:c r="L12" s="19" t="s"/>
-      <x:c r="M12" s="19" t="s"/>
-      <x:c r="N12" s="19" t="s"/>
-      <x:c r="O12" s="19" t="s"/>
-      <x:c r="P12" s="19" t="s"/>
-      <x:c r="Q12" s="19" t="s"/>
-      <x:c r="R12" s="20" t="s"/>
+      <x:c r="B12" s="19" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="20" t="s"/>
+      <x:c r="D12" s="20" t="s"/>
+      <x:c r="E12" s="20" t="s"/>
+      <x:c r="F12" s="20" t="s"/>
+      <x:c r="G12" s="20" t="s"/>
+      <x:c r="H12" s="20" t="s"/>
+      <x:c r="I12" s="20" t="s"/>
+      <x:c r="J12" s="20" t="s"/>
+      <x:c r="K12" s="20" t="s"/>
+      <x:c r="L12" s="20" t="s"/>
+      <x:c r="M12" s="20" t="s"/>
+      <x:c r="N12" s="20" t="s"/>
+      <x:c r="O12" s="20" t="s"/>
+      <x:c r="P12" s="20" t="s"/>
+      <x:c r="Q12" s="20" t="s"/>
+      <x:c r="R12" s="21" t="s"/>
     </x:row>
     <x:row r="13" spans="1:18">
       <x:c r="B13" s="15" t="s"/>
@@ -1692,26 +1812,26 @@
       <x:c r="O13" s="16" t="s"/>
       <x:c r="P13" s="16" t="s"/>
       <x:c r="Q13" s="16" t="s"/>
-      <x:c r="R13" s="17" t="s"/>
+      <x:c r="R13" s="18" t="s"/>
     </x:row>
     <x:row r="14" spans="1:18">
-      <x:c r="B14" s="21" t="s"/>
-      <x:c r="C14" s="22" t="s"/>
-      <x:c r="D14" s="22" t="s"/>
-      <x:c r="E14" s="22" t="s"/>
-      <x:c r="F14" s="22" t="s"/>
-      <x:c r="G14" s="22" t="s"/>
-      <x:c r="H14" s="22" t="s"/>
-      <x:c r="I14" s="22" t="s"/>
-      <x:c r="J14" s="22" t="s"/>
-      <x:c r="K14" s="22" t="s"/>
-      <x:c r="L14" s="22" t="s"/>
-      <x:c r="M14" s="22" t="s"/>
-      <x:c r="N14" s="22" t="s"/>
-      <x:c r="O14" s="22" t="s"/>
-      <x:c r="P14" s="22" t="s"/>
-      <x:c r="Q14" s="22" t="s"/>
-      <x:c r="R14" s="23" t="s"/>
+      <x:c r="B14" s="22" t="s"/>
+      <x:c r="C14" s="23" t="s"/>
+      <x:c r="D14" s="23" t="s"/>
+      <x:c r="E14" s="23" t="s"/>
+      <x:c r="F14" s="23" t="s"/>
+      <x:c r="G14" s="23" t="s"/>
+      <x:c r="H14" s="23" t="s"/>
+      <x:c r="I14" s="23" t="s"/>
+      <x:c r="J14" s="23" t="s"/>
+      <x:c r="K14" s="23" t="s"/>
+      <x:c r="L14" s="23" t="s"/>
+      <x:c r="M14" s="23" t="s"/>
+      <x:c r="N14" s="23" t="s"/>
+      <x:c r="O14" s="23" t="s"/>
+      <x:c r="P14" s="23" t="s"/>
+      <x:c r="Q14" s="23" t="s"/>
+      <x:c r="R14" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
@@ -1745,7 +1865,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K19"/>
+  <x:dimension ref="A1:K14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1760,234 +1880,187 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
-      <x:c r="B2" s="25" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C2" s="26" t="s"/>
-      <x:c r="D2" s="26" t="s"/>
-      <x:c r="E2" s="26" t="s"/>
-      <x:c r="F2" s="26" t="s"/>
-      <x:c r="G2" s="27" t="s"/>
-      <x:c r="I2" s="28" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J2" s="29" t="s"/>
-      <x:c r="K2" s="29" t="s"/>
+      <x:c r="B2" s="26" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C2" s="27" t="s"/>
+      <x:c r="D2" s="27" t="s"/>
+      <x:c r="E2" s="27" t="s"/>
+      <x:c r="F2" s="27" t="s"/>
+      <x:c r="G2" s="28" t="s"/>
+      <x:c r="I2" s="29" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J2" s="30" t="s"/>
+      <x:c r="K2" s="30" t="s"/>
     </x:row>
     <x:row r="3" spans="1:11">
-      <x:c r="B3" s="29" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C3" s="29" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D3" s="29" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E3" s="29" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F3" s="29" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G3" s="29" t="s">
+      <x:c r="B3" s="30" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="I3" s="29" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J3" s="29" t="s">
+      <x:c r="C3" s="30" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="K3" s="29" t="s"/>
+      <x:c r="D3" s="30" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E3" s="30" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F3" s="30" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G3" s="30" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I3" s="30" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J3" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K3" s="30" t="s"/>
     </x:row>
     <x:row r="4" spans="1:11">
-      <x:c r="B4" s="29" t="s">
+      <x:c r="B4" s="30" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C4" s="29" t="s">
+      <x:c r="C4" s="30" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D4" s="29" t="s">
+      <x:c r="D4" s="30" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E4" s="29" t="n">
+      <x:c r="E4" s="30" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="29" t="n">
+      <x:c r="F4" s="30" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G4" s="29" t="n">
+      <x:c r="G4" s="30" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I4" s="29" t="s"/>
-      <x:c r="J4" s="29" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K4" s="29" t="s">
-        <x:v>48</x:v>
+      <x:c r="I4" s="30" t="s"/>
+      <x:c r="J4" s="30" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K4" s="30" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
-      <x:c r="B5" s="30" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C5" s="30" t="n">
+      <x:c r="B5" s="31" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C5" s="31" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D5" s="30" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E5" s="30" t="s"/>
-      <x:c r="F5" s="30" t="s"/>
-      <x:c r="G5" s="30" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I5" s="29" t="s">
+      <x:c r="D5" s="31" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E5" s="31" t="s"/>
+      <x:c r="F5" s="31" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="31" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I5" s="30" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="J5" s="29" t="n">
+      <x:c r="J5" s="30" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K5" s="29" t="n">
+      <x:c r="K5" s="30" t="n">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="B6" s="30" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C6" s="30" t="n">
+      <x:c r="B6" s="31" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C6" s="31" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D6" s="30" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E6" s="30" t="s"/>
-      <x:c r="F6" s="30" t="s"/>
-      <x:c r="G6" s="30" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I6" s="30" t="n">
+      <x:c r="D6" s="31" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E6" s="31" t="s"/>
+      <x:c r="F6" s="31" t="s"/>
+      <x:c r="G6" s="31" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I6" s="31" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="J6" s="30" t="s"/>
-      <x:c r="K6" s="30" t="s"/>
+      <x:c r="J6" s="31" t="s"/>
+      <x:c r="K6" s="31" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="B7" s="30" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C7" s="30" t="n">
+      <x:c r="B7" s="31" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C7" s="31" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D7" s="30" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E7" s="30" t="s"/>
-      <x:c r="F7" s="30" t="s"/>
-      <x:c r="G7" s="30" t="s">
-        <x:v>51</x:v>
+      <x:c r="D7" s="31" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E7" s="31" t="s"/>
+      <x:c r="F7" s="31" t="s"/>
+      <x:c r="G7" s="31" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="B8" s="30" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C8" s="30" t="n">
+      <x:c r="B8" s="31" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C8" s="31" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D8" s="30" t="s">
+      <x:c r="D8" s="31" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" s="31" t="s"/>
+      <x:c r="F8" s="31" t="s"/>
+      <x:c r="G8" s="31" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E8" s="30" t="s"/>
-      <x:c r="F8" s="30" t="s"/>
-      <x:c r="G8" s="30" t="s">
-        <x:v>51</x:v>
-      </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="B11" s="28" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C11" s="29" t="s"/>
-      <x:c r="D11" s="29" t="s"/>
+      <x:c r="B11" s="29" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C11" s="30" t="s"/>
+      <x:c r="D11" s="30" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="B12" s="29" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C12" s="29" t="s">
+      <x:c r="B12" s="30" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C12" s="30" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D12" s="29" t="s">
-        <x:v>59</x:v>
+      <x:c r="D12" s="30" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="B13" s="29" t="s">
+      <x:c r="B13" s="30" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C13" s="29" t="s">
+      <x:c r="C13" s="30" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D13" s="29" t="s">
+      <x:c r="D13" s="30" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="B14" s="31" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C14" s="32" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D14" s="33" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:11">
-      <x:c r="B15" s="15" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C15" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D15" s="17" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="B16" s="15" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C16" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D16" s="17" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:11">
-      <x:c r="B17" s="15" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C17" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D17" s="17" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="B18" s="21" t="s"/>
-      <x:c r="C18" s="22" t="s"/>
-      <x:c r="D18" s="23" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:11">
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">

--- a/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
+++ b/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>РАЗДЕЛ1</x:t>
   </x:si>
@@ -96,21 +96,6 @@
     <x:t>1. По плану мероприятий отчетного года</x:t>
   </x:si>
   <x:si>
-    <x:t>Замена неэкономичных котлов и печей с низким КПД на более эффективные</x:t>
-  </x:si>
-  <x:si>
-    <x:t>шт.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Внедрение автоматизации процессов горения топлива в котлоагрегатах и другом топливоиспользующем оборудовании</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итого</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
     <x:t>2. Дополнительные мероприятия</x:t>
   </x:si>
   <x:si>
@@ -198,10 +183,16 @@
     <x:t>Увеличение использования МВТ</x:t>
   </x:si>
   <x:si>
+    <x:t>166,67%</x:t>
+  </x:si>
+  <x:si>
     <x:t>Затраты на внедрение мероприятий</x:t>
   </x:si>
   <x:si>
     <x:t>млн. руб.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100%</x:t>
   </x:si>
   <x:si>
     <x:t>Причины невыполнения мероприятий программы (плана мероприятий) по энергосбережению</x:t>
@@ -519,7 +510,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="31">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -571,9 +562,6 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -617,7 +605,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="32">
+  <x:cellXfs count="31">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -683,10 +671,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1041,15 +1025,11 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P17"/>
+  <x:dimension ref="A1:P14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.710625" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:16">
       <x:c r="B2" s="1" t="s">
@@ -1243,85 +1223,47 @@
       <x:c r="P8" s="14" t="s"/>
     </x:row>
     <x:row r="9" spans="1:16">
-      <x:c r="B9" s="15" t="n">
-        <x:v>301</x:v>
-      </x:c>
+      <x:c r="B9" s="15" t="s"/>
       <x:c r="C9" s="16" t="s"/>
-      <x:c r="D9" s="16" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E9" s="17">
-        <x:v>41689</x:v>
-      </x:c>
-      <x:c r="F9" s="16" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="D9" s="16" t="s"/>
+      <x:c r="E9" s="16" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
       <x:c r="G9" s="16" t="s"/>
       <x:c r="H9" s="16" t="s"/>
-      <x:c r="I9" s="16" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J9" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K9" s="16" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L9" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M9" s="16" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="N9" s="16" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O9" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P9" s="18" t="n">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="I9" s="16" t="s"/>
+      <x:c r="J9" s="16" t="s"/>
+      <x:c r="K9" s="16" t="s"/>
+      <x:c r="L9" s="16" t="s"/>
+      <x:c r="M9" s="16" t="s"/>
+      <x:c r="N9" s="16" t="s"/>
+      <x:c r="O9" s="16" t="s"/>
+      <x:c r="P9" s="17" t="s"/>
     </x:row>
     <x:row r="10" spans="1:16">
-      <x:c r="B10" s="15" t="n">
-        <x:v>301</x:v>
-      </x:c>
-      <x:c r="C10" s="16" t="s"/>
-      <x:c r="D10" s="16" t="s">
+      <x:c r="B10" s="18" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E10" s="17">
-        <x:v>41682</x:v>
-      </x:c>
-      <x:c r="F10" s="16" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G10" s="16" t="s"/>
-      <x:c r="H10" s="16" t="s"/>
-      <x:c r="I10" s="16" t="s"/>
-      <x:c r="J10" s="16" t="s"/>
-      <x:c r="K10" s="16" t="s"/>
-      <x:c r="L10" s="16" t="s"/>
-      <x:c r="M10" s="16" t="s"/>
-      <x:c r="N10" s="16" t="s"/>
-      <x:c r="O10" s="16" t="s"/>
-      <x:c r="P10" s="18" t="s"/>
+      <x:c r="C10" s="19" t="s"/>
+      <x:c r="D10" s="19" t="s"/>
+      <x:c r="E10" s="19" t="s"/>
+      <x:c r="F10" s="19" t="s"/>
+      <x:c r="G10" s="19" t="s"/>
+      <x:c r="H10" s="19" t="s"/>
+      <x:c r="I10" s="19" t="s"/>
+      <x:c r="J10" s="19" t="s"/>
+      <x:c r="K10" s="19" t="s"/>
+      <x:c r="L10" s="19" t="s"/>
+      <x:c r="M10" s="19" t="s"/>
+      <x:c r="N10" s="19" t="s"/>
+      <x:c r="O10" s="19" t="s"/>
+      <x:c r="P10" s="20" t="s"/>
     </x:row>
     <x:row r="11" spans="1:16">
-      <x:c r="B11" s="15" t="n">
-        <x:v>306</x:v>
-      </x:c>
+      <x:c r="B11" s="15" t="s"/>
       <x:c r="C11" s="16" t="s"/>
-      <x:c r="D11" s="16" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E11" s="17">
-        <x:v>41674</x:v>
-      </x:c>
-      <x:c r="F11" s="16" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="D11" s="16" t="s"/>
+      <x:c r="E11" s="16" t="s"/>
+      <x:c r="F11" s="16" t="s"/>
       <x:c r="G11" s="16" t="s"/>
       <x:c r="H11" s="16" t="s"/>
       <x:c r="I11" s="16" t="s"/>
@@ -1331,137 +1273,60 @@
       <x:c r="M11" s="16" t="s"/>
       <x:c r="N11" s="16" t="s"/>
       <x:c r="O11" s="16" t="s"/>
-      <x:c r="P11" s="18" t="s"/>
+      <x:c r="P11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:16">
-      <x:c r="B12" s="15" t="s"/>
-      <x:c r="C12" s="16" t="s"/>
-      <x:c r="D12" s="16" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F12" s="16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G12" s="16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H12" s="16" t="s"/>
-      <x:c r="I12" s="16" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J12" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K12" s="16" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L12" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M12" s="16" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="N12" s="16" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O12" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P12" s="18" t="n">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="B12" s="18" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s"/>
+      <x:c r="D12" s="19" t="s"/>
+      <x:c r="E12" s="19" t="s"/>
+      <x:c r="F12" s="19" t="s"/>
+      <x:c r="G12" s="19" t="s"/>
+      <x:c r="H12" s="19" t="s"/>
+      <x:c r="I12" s="19" t="s"/>
+      <x:c r="J12" s="19" t="s"/>
+      <x:c r="K12" s="19" t="s"/>
+      <x:c r="L12" s="19" t="s"/>
+      <x:c r="M12" s="19" t="s"/>
+      <x:c r="N12" s="19" t="s"/>
+      <x:c r="O12" s="19" t="s"/>
+      <x:c r="P12" s="20" t="s"/>
     </x:row>
     <x:row r="13" spans="1:16">
-      <x:c r="B13" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C13" s="20" t="s"/>
-      <x:c r="D13" s="20" t="s"/>
-      <x:c r="E13" s="20" t="s"/>
-      <x:c r="F13" s="20" t="s"/>
-      <x:c r="G13" s="20" t="s"/>
-      <x:c r="H13" s="20" t="s"/>
-      <x:c r="I13" s="20" t="s"/>
-      <x:c r="J13" s="20" t="s"/>
-      <x:c r="K13" s="20" t="s"/>
-      <x:c r="L13" s="20" t="s"/>
-      <x:c r="M13" s="20" t="s"/>
-      <x:c r="N13" s="20" t="s"/>
-      <x:c r="O13" s="20" t="s"/>
-      <x:c r="P13" s="21" t="s"/>
+      <x:c r="B13" s="15" t="s"/>
+      <x:c r="C13" s="16" t="s"/>
+      <x:c r="D13" s="16" t="s"/>
+      <x:c r="E13" s="16" t="s"/>
+      <x:c r="F13" s="16" t="s"/>
+      <x:c r="G13" s="16" t="s"/>
+      <x:c r="H13" s="16" t="s"/>
+      <x:c r="I13" s="16" t="s"/>
+      <x:c r="J13" s="16" t="s"/>
+      <x:c r="K13" s="16" t="s"/>
+      <x:c r="L13" s="16" t="s"/>
+      <x:c r="M13" s="16" t="s"/>
+      <x:c r="N13" s="16" t="s"/>
+      <x:c r="O13" s="16" t="s"/>
+      <x:c r="P13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:16">
-      <x:c r="B14" s="15" t="s"/>
-      <x:c r="C14" s="16" t="s"/>
-      <x:c r="D14" s="16" t="s"/>
-      <x:c r="E14" s="16" t="s"/>
-      <x:c r="F14" s="16" t="s"/>
-      <x:c r="G14" s="16" t="s"/>
-      <x:c r="H14" s="16" t="s"/>
-      <x:c r="I14" s="16" t="s"/>
-      <x:c r="J14" s="16" t="s"/>
-      <x:c r="K14" s="16" t="s"/>
-      <x:c r="L14" s="16" t="s"/>
-      <x:c r="M14" s="16" t="s"/>
-      <x:c r="N14" s="16" t="s"/>
-      <x:c r="O14" s="16" t="s"/>
-      <x:c r="P14" s="18" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:16">
-      <x:c r="B15" s="19" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C15" s="20" t="s"/>
-      <x:c r="D15" s="20" t="s"/>
-      <x:c r="E15" s="20" t="s"/>
-      <x:c r="F15" s="20" t="s"/>
-      <x:c r="G15" s="20" t="s"/>
-      <x:c r="H15" s="20" t="s"/>
-      <x:c r="I15" s="20" t="s"/>
-      <x:c r="J15" s="20" t="s"/>
-      <x:c r="K15" s="20" t="s"/>
-      <x:c r="L15" s="20" t="s"/>
-      <x:c r="M15" s="20" t="s"/>
-      <x:c r="N15" s="20" t="s"/>
-      <x:c r="O15" s="20" t="s"/>
-      <x:c r="P15" s="21" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:16">
-      <x:c r="B16" s="15" t="s"/>
-      <x:c r="C16" s="16" t="s"/>
-      <x:c r="D16" s="16" t="s"/>
-      <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
-      <x:c r="H16" s="16" t="s"/>
-      <x:c r="I16" s="16" t="s"/>
-      <x:c r="J16" s="16" t="s"/>
-      <x:c r="K16" s="16" t="s"/>
-      <x:c r="L16" s="16" t="s"/>
-      <x:c r="M16" s="16" t="s"/>
-      <x:c r="N16" s="16" t="s"/>
-      <x:c r="O16" s="16" t="s"/>
-      <x:c r="P16" s="18" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:16">
-      <x:c r="B17" s="22" t="s"/>
-      <x:c r="C17" s="23" t="s"/>
-      <x:c r="D17" s="23" t="s"/>
-      <x:c r="E17" s="23" t="s"/>
-      <x:c r="F17" s="23" t="s"/>
-      <x:c r="G17" s="23" t="s"/>
-      <x:c r="H17" s="23" t="s"/>
-      <x:c r="I17" s="23" t="s"/>
-      <x:c r="J17" s="23" t="s"/>
-      <x:c r="K17" s="23" t="s"/>
-      <x:c r="L17" s="23" t="s"/>
-      <x:c r="M17" s="23" t="s"/>
-      <x:c r="N17" s="23" t="s"/>
-      <x:c r="O17" s="23" t="s"/>
-      <x:c r="P17" s="24" t="s"/>
+      <x:c r="B14" s="21" t="s"/>
+      <x:c r="C14" s="22" t="s"/>
+      <x:c r="D14" s="22" t="s"/>
+      <x:c r="E14" s="22" t="s"/>
+      <x:c r="F14" s="22" t="s"/>
+      <x:c r="G14" s="22" t="s"/>
+      <x:c r="H14" s="22" t="s"/>
+      <x:c r="I14" s="22" t="s"/>
+      <x:c r="J14" s="22" t="s"/>
+      <x:c r="K14" s="22" t="s"/>
+      <x:c r="L14" s="22" t="s"/>
+      <x:c r="M14" s="22" t="s"/>
+      <x:c r="N14" s="22" t="s"/>
+      <x:c r="O14" s="22" t="s"/>
+      <x:c r="P14" s="23" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -1478,8 +1343,8 @@
     <x:mergeCell ref="I5:I6"/>
     <x:mergeCell ref="J5:P5"/>
     <x:mergeCell ref="B8:P8"/>
-    <x:mergeCell ref="B13:P13"/>
-    <x:mergeCell ref="B15:P15"/>
+    <x:mergeCell ref="B10:P10"/>
+    <x:mergeCell ref="B12:P12"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1523,7 +1388,7 @@
     </x:row>
     <x:row r="3" spans="1:18" customFormat="1" ht="30" customHeight="1">
       <x:c r="B3" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s"/>
       <x:c r="D3" s="5" t="s"/>
@@ -1555,19 +1420,19 @@
       <x:c r="E4" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F4" s="25" t="s">
-        <x:v>34</x:v>
+      <x:c r="F4" s="24" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G4" s="8" t="s"/>
-      <x:c r="H4" s="25" t="s">
+      <x:c r="H4" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="I4" s="8" t="s"/>
       <x:c r="J4" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L4" s="5" t="s"/>
       <x:c r="M4" s="5" t="s"/>
@@ -1588,7 +1453,7 @@
       <x:c r="I5" s="6" t="s"/>
       <x:c r="J5" s="6" t="s"/>
       <x:c r="K5" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L5" s="5" t="s">
         <x:v>10</x:v>
@@ -1606,10 +1471,10 @@
       <x:c r="D6" s="6" t="s"/>
       <x:c r="E6" s="6" t="s"/>
       <x:c r="F6" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H6" s="8" t="s">
         <x:v>11</x:v>
@@ -1626,7 +1491,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="N6" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O6" s="8" t="s">
         <x:v>16</x:v>
@@ -1658,10 +1523,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H7" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I7" s="10" t="n">
         <x:v>1</x:v>
@@ -1732,28 +1597,28 @@
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
       <x:c r="Q9" s="16" t="s"/>
-      <x:c r="R9" s="18" t="s"/>
+      <x:c r="R9" s="17" t="s"/>
     </x:row>
     <x:row r="10" spans="1:18">
-      <x:c r="B10" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C10" s="20" t="s"/>
-      <x:c r="D10" s="20" t="s"/>
-      <x:c r="E10" s="20" t="s"/>
-      <x:c r="F10" s="20" t="s"/>
-      <x:c r="G10" s="20" t="s"/>
-      <x:c r="H10" s="20" t="s"/>
-      <x:c r="I10" s="20" t="s"/>
-      <x:c r="J10" s="20" t="s"/>
-      <x:c r="K10" s="20" t="s"/>
-      <x:c r="L10" s="20" t="s"/>
-      <x:c r="M10" s="20" t="s"/>
-      <x:c r="N10" s="20" t="s"/>
-      <x:c r="O10" s="20" t="s"/>
-      <x:c r="P10" s="20" t="s"/>
-      <x:c r="Q10" s="20" t="s"/>
-      <x:c r="R10" s="21" t="s"/>
+      <x:c r="B10" s="18" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C10" s="19" t="s"/>
+      <x:c r="D10" s="19" t="s"/>
+      <x:c r="E10" s="19" t="s"/>
+      <x:c r="F10" s="19" t="s"/>
+      <x:c r="G10" s="19" t="s"/>
+      <x:c r="H10" s="19" t="s"/>
+      <x:c r="I10" s="19" t="s"/>
+      <x:c r="J10" s="19" t="s"/>
+      <x:c r="K10" s="19" t="s"/>
+      <x:c r="L10" s="19" t="s"/>
+      <x:c r="M10" s="19" t="s"/>
+      <x:c r="N10" s="19" t="s"/>
+      <x:c r="O10" s="19" t="s"/>
+      <x:c r="P10" s="19" t="s"/>
+      <x:c r="Q10" s="19" t="s"/>
+      <x:c r="R10" s="20" t="s"/>
     </x:row>
     <x:row r="11" spans="1:18">
       <x:c r="B11" s="15" t="s"/>
@@ -1772,28 +1637,28 @@
       <x:c r="O11" s="16" t="s"/>
       <x:c r="P11" s="16" t="s"/>
       <x:c r="Q11" s="16" t="s"/>
-      <x:c r="R11" s="18" t="s"/>
+      <x:c r="R11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:18">
-      <x:c r="B12" s="19" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C12" s="20" t="s"/>
-      <x:c r="D12" s="20" t="s"/>
-      <x:c r="E12" s="20" t="s"/>
-      <x:c r="F12" s="20" t="s"/>
-      <x:c r="G12" s="20" t="s"/>
-      <x:c r="H12" s="20" t="s"/>
-      <x:c r="I12" s="20" t="s"/>
-      <x:c r="J12" s="20" t="s"/>
-      <x:c r="K12" s="20" t="s"/>
-      <x:c r="L12" s="20" t="s"/>
-      <x:c r="M12" s="20" t="s"/>
-      <x:c r="N12" s="20" t="s"/>
-      <x:c r="O12" s="20" t="s"/>
-      <x:c r="P12" s="20" t="s"/>
-      <x:c r="Q12" s="20" t="s"/>
-      <x:c r="R12" s="21" t="s"/>
+      <x:c r="B12" s="18" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s"/>
+      <x:c r="D12" s="19" t="s"/>
+      <x:c r="E12" s="19" t="s"/>
+      <x:c r="F12" s="19" t="s"/>
+      <x:c r="G12" s="19" t="s"/>
+      <x:c r="H12" s="19" t="s"/>
+      <x:c r="I12" s="19" t="s"/>
+      <x:c r="J12" s="19" t="s"/>
+      <x:c r="K12" s="19" t="s"/>
+      <x:c r="L12" s="19" t="s"/>
+      <x:c r="M12" s="19" t="s"/>
+      <x:c r="N12" s="19" t="s"/>
+      <x:c r="O12" s="19" t="s"/>
+      <x:c r="P12" s="19" t="s"/>
+      <x:c r="Q12" s="19" t="s"/>
+      <x:c r="R12" s="20" t="s"/>
     </x:row>
     <x:row r="13" spans="1:18">
       <x:c r="B13" s="15" t="s"/>
@@ -1812,26 +1677,26 @@
       <x:c r="O13" s="16" t="s"/>
       <x:c r="P13" s="16" t="s"/>
       <x:c r="Q13" s="16" t="s"/>
-      <x:c r="R13" s="18" t="s"/>
+      <x:c r="R13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:18">
-      <x:c r="B14" s="22" t="s"/>
-      <x:c r="C14" s="23" t="s"/>
-      <x:c r="D14" s="23" t="s"/>
-      <x:c r="E14" s="23" t="s"/>
-      <x:c r="F14" s="23" t="s"/>
-      <x:c r="G14" s="23" t="s"/>
-      <x:c r="H14" s="23" t="s"/>
-      <x:c r="I14" s="23" t="s"/>
-      <x:c r="J14" s="23" t="s"/>
-      <x:c r="K14" s="23" t="s"/>
-      <x:c r="L14" s="23" t="s"/>
-      <x:c r="M14" s="23" t="s"/>
-      <x:c r="N14" s="23" t="s"/>
-      <x:c r="O14" s="23" t="s"/>
-      <x:c r="P14" s="23" t="s"/>
-      <x:c r="Q14" s="23" t="s"/>
-      <x:c r="R14" s="24" t="s"/>
+      <x:c r="B14" s="21" t="s"/>
+      <x:c r="C14" s="22" t="s"/>
+      <x:c r="D14" s="22" t="s"/>
+      <x:c r="E14" s="22" t="s"/>
+      <x:c r="F14" s="22" t="s"/>
+      <x:c r="G14" s="22" t="s"/>
+      <x:c r="H14" s="22" t="s"/>
+      <x:c r="I14" s="22" t="s"/>
+      <x:c r="J14" s="22" t="s"/>
+      <x:c r="K14" s="22" t="s"/>
+      <x:c r="L14" s="22" t="s"/>
+      <x:c r="M14" s="22" t="s"/>
+      <x:c r="N14" s="22" t="s"/>
+      <x:c r="O14" s="22" t="s"/>
+      <x:c r="P14" s="22" t="s"/>
+      <x:c r="Q14" s="22" t="s"/>
+      <x:c r="R14" s="23" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
@@ -1880,180 +1745,186 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
-      <x:c r="B2" s="26" t="s">
+      <x:c r="B2" s="25" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C2" s="26" t="s"/>
+      <x:c r="D2" s="26" t="s"/>
+      <x:c r="E2" s="26" t="s"/>
+      <x:c r="F2" s="26" t="s"/>
+      <x:c r="G2" s="27" t="s"/>
+      <x:c r="I2" s="28" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J2" s="29" t="s"/>
+      <x:c r="K2" s="29" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="B3" s="29" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C3" s="29" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D3" s="29" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E3" s="29" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C2" s="27" t="s"/>
-      <x:c r="D2" s="27" t="s"/>
-      <x:c r="E2" s="27" t="s"/>
-      <x:c r="F2" s="27" t="s"/>
-      <x:c r="G2" s="28" t="s"/>
-      <x:c r="I2" s="29" t="s">
+      <x:c r="F3" s="29" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="J2" s="30" t="s"/>
-      <x:c r="K2" s="30" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:11">
-      <x:c r="B3" s="30" t="s">
+      <x:c r="G3" s="29" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C3" s="30" t="s">
+      <x:c r="I3" s="29" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J3" s="29" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D3" s="30" t="s">
+      <x:c r="K3" s="29" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="B4" s="29" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="29" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="29" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E4" s="29" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="29" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G4" s="29" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I4" s="29" t="s"/>
+      <x:c r="J4" s="29" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E3" s="30" t="s">
+      <x:c r="K4" s="29" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F3" s="30" t="s">
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="B5" s="30" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="G3" s="30" t="s">
+      <x:c r="C5" s="30" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D5" s="30" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="I3" s="30" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J3" s="30" t="s">
+      <x:c r="E5" s="30" t="s"/>
+      <x:c r="F5" s="30" t="s"/>
+      <x:c r="G5" s="30" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="K3" s="30" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:11">
-      <x:c r="B4" s="30" t="s">
+      <x:c r="I5" s="29" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C4" s="30" t="s">
+      <x:c r="J5" s="29" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K5" s="29" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="B6" s="30" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C6" s="30" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="30" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E6" s="30" t="s"/>
+      <x:c r="F6" s="30" t="s"/>
+      <x:c r="G6" s="30" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I6" s="30" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J6" s="30" t="s"/>
+      <x:c r="K6" s="30" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="B7" s="30" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C7" s="30" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D7" s="30" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E7" s="30" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F7" s="30" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="30" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="B8" s="30" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C8" s="30" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="30" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E8" s="30" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F8" s="30" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="30" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="B11" s="28" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C11" s="29" t="s"/>
+      <x:c r="D11" s="29" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="B12" s="29" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C12" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D12" s="29" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="B13" s="29" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C13" s="29" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D4" s="30" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E4" s="30" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="30" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="30" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I4" s="30" t="s"/>
-      <x:c r="J4" s="30" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="K4" s="30" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="B5" s="31" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C5" s="31" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="31" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E5" s="31" t="s"/>
-      <x:c r="F5" s="31" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="31" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I5" s="30" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J5" s="30" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K5" s="30" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:11">
-      <x:c r="B6" s="31" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C6" s="31" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="31" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E6" s="31" t="s"/>
-      <x:c r="F6" s="31" t="s"/>
-      <x:c r="G6" s="31" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I6" s="31" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J6" s="31" t="s"/>
-      <x:c r="K6" s="31" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:11">
-      <x:c r="B7" s="31" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C7" s="31" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="31" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E7" s="31" t="s"/>
-      <x:c r="F7" s="31" t="s"/>
-      <x:c r="G7" s="31" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:11">
-      <x:c r="B8" s="31" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C8" s="31" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="31" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E8" s="31" t="s"/>
-      <x:c r="F8" s="31" t="s"/>
-      <x:c r="G8" s="31" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="B11" s="29" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C11" s="30" t="s"/>
-      <x:c r="D11" s="30" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:11">
-      <x:c r="B12" s="30" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C12" s="30" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D12" s="30" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:11">
-      <x:c r="B13" s="30" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C13" s="30" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D13" s="30" t="s">
+      <x:c r="D13" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>

--- a/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
+++ b/ERespondent/ERespondent/bin/Debug/BasicTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>РАЗДЕЛ1</x:t>
   </x:si>
@@ -183,16 +183,10 @@
     <x:t>Увеличение использования МВТ</x:t>
   </x:si>
   <x:si>
-    <x:t>166,67%</x:t>
-  </x:si>
-  <x:si>
     <x:t>Затраты на внедрение мероприятий</x:t>
   </x:si>
   <x:si>
     <x:t>млн. руб.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100%</x:t>
   </x:si>
   <x:si>
     <x:t>Причины невыполнения мероприятий программы (плана мероприятий) по энергосбережению</x:t>
@@ -1869,52 +1863,44 @@
       <x:c r="D7" s="30" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E7" s="30" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F7" s="30" t="n">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="E7" s="30" t="s"/>
+      <x:c r="F7" s="30" t="s"/>
       <x:c r="G7" s="30" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="B8" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="30" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="30" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E8" s="30" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F8" s="30" t="n">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E8" s="30" t="s"/>
+      <x:c r="F8" s="30" t="s"/>
       <x:c r="G8" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="B11" s="28" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s"/>
       <x:c r="D11" s="29" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="B12" s="29" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
